--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C29125-09C5-462F-85AC-0050FF8B1170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AF128-9273-47AB-BBAB-CBB1E9E6BEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
     <sheet name="DataScience" sheetId="2" r:id="rId2"/>
+    <sheet name="InstitutionMkt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>Course Name</t>
   </si>
@@ -233,6 +233,90 @@
   </si>
   <si>
     <t>Subtopic</t>
+  </si>
+  <si>
+    <t>GKCEM</t>
+  </si>
+  <si>
+    <t>Baruipur</t>
+  </si>
+  <si>
+    <t>Anubrata Mondal</t>
+  </si>
+  <si>
+    <t>HoD Electrical</t>
+  </si>
+  <si>
+    <t>Catalog emailed</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JLDEMC</t>
+  </si>
+  <si>
+    <t>Champahati</t>
+  </si>
+  <si>
+    <t>TPO</t>
+  </si>
+  <si>
+    <t>missed call</t>
+  </si>
+  <si>
+    <t>22/09/2023</t>
+  </si>
+  <si>
+    <t>Swami Vivekananda Institute of Science and Technology - Sonarpur</t>
+  </si>
+  <si>
+    <t>Dream Institute of Technology - Thakurpukur</t>
+  </si>
+  <si>
+    <t>Future Institute of Technology (FIT) - Boral</t>
+  </si>
+  <si>
+    <t>Netaji Subhash Engineering College - Panchpota</t>
+  </si>
+  <si>
+    <t>Calcutta Institute of Engineering and Management - Kudghat</t>
+  </si>
+  <si>
+    <t>Future Institute of Engineering and Management - Sonarpur</t>
+  </si>
+  <si>
+    <t>Heritage Institute of Technology - Anandapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghnad Saha Institute of Tech - Hussaninpur </t>
+  </si>
+  <si>
+    <t>Birla Institute of Technology - Kolkata - Rajdanga</t>
+  </si>
+  <si>
+    <t>Jadavpur Engineering College</t>
+  </si>
+  <si>
+    <t>Barasat</t>
+  </si>
+  <si>
+    <t>Brainware</t>
   </si>
 </sst>
 </file>
@@ -431,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -451,9 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -468,9 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -499,6 +577,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,42 +885,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="5"/>
@@ -858,14 +943,14 @@
         <f>18%*H2</f>
         <v>1440</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <f>H2+I2</f>
         <v>9440</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
@@ -875,11 +960,11 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
@@ -889,11 +974,11 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>46</v>
       </c>
@@ -903,11 +988,11 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
@@ -917,11 +1002,11 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
@@ -931,11 +1016,11 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>54</v>
       </c>
@@ -945,11 +1030,11 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
@@ -959,11 +1044,11 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -973,13 +1058,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="3"/>
@@ -1002,14 +1087,14 @@
         <f>18%*H11</f>
         <v>2160</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f>H11+I11</f>
         <v>14160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1019,11 +1104,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1033,11 +1118,11 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1047,11 +1132,11 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1061,11 +1146,11 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1075,11 +1160,11 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1089,13 +1174,13 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5"/>
@@ -1118,14 +1203,14 @@
         <f>18%*H18</f>
         <v>2160</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <f>H18+I18</f>
         <v>14160</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1135,11 +1220,11 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1149,11 +1234,11 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
@@ -1163,11 +1248,11 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1177,11 +1262,11 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1191,13 +1276,13 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>4</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="5"/>
@@ -1220,14 +1305,14 @@
         <f>18%*H24</f>
         <v>2160</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <f>H24+I24</f>
         <v>14160</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1237,11 +1322,11 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
@@ -1251,11 +1336,11 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1265,11 +1350,11 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="5" t="s">
         <v>34</v>
       </c>
@@ -1279,11 +1364,11 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="5" t="s">
         <v>35</v>
       </c>
@@ -1293,11 +1378,11 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1307,13 +1392,13 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>5</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="5"/>
@@ -1336,14 +1421,14 @@
         <f>18%*H31</f>
         <v>2160</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <f>H31+I31</f>
         <v>14160</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="5" t="s">
         <v>31</v>
       </c>
@@ -1353,11 +1438,11 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1367,11 +1452,11 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>35</v>
       </c>
@@ -1381,11 +1466,11 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1395,13 +1480,13 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>6</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="5"/>
@@ -1424,14 +1509,14 @@
         <f>18%*H36</f>
         <v>2160</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="10">
         <f>H36+I36</f>
         <v>14160</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="5" t="s">
         <v>36</v>
       </c>
@@ -1441,11 +1526,11 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1455,11 +1540,11 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="11"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1469,11 +1554,11 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="11"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="5" t="s">
         <v>34</v>
       </c>
@@ -1483,11 +1568,11 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="5" t="s">
         <v>35</v>
       </c>
@@ -1497,11 +1582,11 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="11"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
@@ -1511,13 +1596,13 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="11"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="17">
+      <c r="A43" s="15">
         <v>7</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="5"/>
@@ -1540,14 +1625,14 @@
         <f>18%*H43</f>
         <v>2160</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <f>H43+I43</f>
         <v>14160</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
@@ -1557,11 +1642,11 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="11"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
@@ -1571,11 +1656,11 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
@@ -1585,11 +1670,11 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="11"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5" t="s">
         <v>7</v>
       </c>
@@ -1599,13 +1684,13 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A48" s="17">
+      <c r="A48" s="15">
         <v>8</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="5"/>
@@ -1628,14 +1713,14 @@
         <f>18%*H48</f>
         <v>2160</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <f>H48+I48</f>
         <v>14160</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="5" t="s">
         <v>28</v>
       </c>
@@ -1645,11 +1730,11 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="5" t="s">
         <v>25</v>
       </c>
@@ -1659,11 +1744,11 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="11"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="5" t="s">
         <v>15</v>
       </c>
@@ -1673,11 +1758,11 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="11"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="5" t="s">
         <v>16</v>
       </c>
@@ -1687,11 +1772,11 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="11"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
       </c>
@@ -1701,11 +1786,11 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="11"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
@@ -1715,11 +1800,11 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="11"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
@@ -1729,11 +1814,11 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
@@ -1743,13 +1828,13 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="11"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="17">
+      <c r="A57" s="15">
         <v>9</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="5"/>
@@ -1765,15 +1850,15 @@
       <c r="G57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="13"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="5" t="s">
         <v>27</v>
       </c>
@@ -1783,11 +1868,11 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="11"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="5" t="s">
         <v>26</v>
       </c>
@@ -1797,11 +1882,11 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="11"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="5" t="s">
         <v>57</v>
       </c>
@@ -1811,11 +1896,11 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="11"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
@@ -1825,11 +1910,11 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="11"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="5" t="s">
         <v>20</v>
       </c>
@@ -1839,21 +1924,21 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="11"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
@@ -1878,20 +1963,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E24A6B1-543D-4B44-AA87-EB88B2DA03A7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1926,6 +2011,148 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AF128-9273-47AB-BBAB-CBB1E9E6BEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3492CA0-C480-4A70-AFED-C3B0FC8553CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
     <sheet name="DataScience" sheetId="2" r:id="rId2"/>
     <sheet name="InstitutionMkt" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
   <si>
     <t>Course Name</t>
   </si>
@@ -247,9 +248,6 @@
     <t>HoD Electrical</t>
   </si>
   <si>
-    <t>Catalog emailed</t>
-  </si>
-  <si>
     <t>21/09/2023</t>
   </si>
   <si>
@@ -277,53 +275,152 @@
     <t>TPO</t>
   </si>
   <si>
-    <t>missed call</t>
-  </si>
-  <si>
     <t>22/09/2023</t>
   </si>
   <si>
-    <t>Swami Vivekananda Institute of Science and Technology - Sonarpur</t>
-  </si>
-  <si>
-    <t>Dream Institute of Technology - Thakurpukur</t>
-  </si>
-  <si>
-    <t>Future Institute of Technology (FIT) - Boral</t>
-  </si>
-  <si>
-    <t>Netaji Subhash Engineering College - Panchpota</t>
-  </si>
-  <si>
-    <t>Calcutta Institute of Engineering and Management - Kudghat</t>
-  </si>
-  <si>
-    <t>Future Institute of Engineering and Management - Sonarpur</t>
-  </si>
-  <si>
-    <t>Heritage Institute of Technology - Anandapur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meghnad Saha Institute of Tech - Hussaninpur </t>
-  </si>
-  <si>
-    <t>Birla Institute of Technology - Kolkata - Rajdanga</t>
-  </si>
-  <si>
-    <t>Jadavpur Engineering College</t>
-  </si>
-  <si>
     <t>Barasat</t>
   </si>
   <si>
     <t>Brainware</t>
+  </si>
+  <si>
+    <t>Boral</t>
+  </si>
+  <si>
+    <t>Future Institute of Technology (FIT)</t>
+  </si>
+  <si>
+    <t>HoD CSE AIML</t>
+  </si>
+  <si>
+    <t>Sonarpur</t>
+  </si>
+  <si>
+    <t>Swami Vivekananda Institute of Science and Technology</t>
+  </si>
+  <si>
+    <t>Dream Institute of Technology</t>
+  </si>
+  <si>
+    <t>Thakurpukur</t>
+  </si>
+  <si>
+    <t>Netaji Subhash Engineering College</t>
+  </si>
+  <si>
+    <t>Panchpota</t>
+  </si>
+  <si>
+    <t>Calcutta Institute of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Kudghat</t>
+  </si>
+  <si>
+    <t>Future Institute of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Heritage Institute of Technology</t>
+  </si>
+  <si>
+    <t>Anandapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghnad Saha Institute of Tech </t>
+  </si>
+  <si>
+    <t>Birla Institute of Technology</t>
+  </si>
+  <si>
+    <t>Rajdanga</t>
+  </si>
+  <si>
+    <t>Jadavpur University</t>
+  </si>
+  <si>
+    <t>Jadavpur</t>
+  </si>
+  <si>
+    <t>jldplacementtpo@gmail.com</t>
+  </si>
+  <si>
+    <t>Wednesday 11am appt fixed</t>
+  </si>
+  <si>
+    <t>somnathroysvist@gmail.com</t>
+  </si>
+  <si>
+    <t>Somnath Roy</t>
+  </si>
+  <si>
+    <t>TPO + general manager</t>
+  </si>
+  <si>
+    <t>BBIT</t>
+  </si>
+  <si>
+    <t>Budge Budge</t>
+  </si>
+  <si>
+    <t>St Thomas</t>
+  </si>
+  <si>
+    <t>Khidirpore</t>
+  </si>
+  <si>
+    <t>Deborshi Dutta</t>
+  </si>
+  <si>
+    <t>Appointment Fixed Tomorrow 12:30pm</t>
+  </si>
+  <si>
+    <t>8420123333/9836888444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9830895486/9874155125 </t>
+  </si>
+  <si>
+    <t>Phone No.</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Taposh Roy TPO head, Dr Pradipta Banerjee</t>
+  </si>
+  <si>
+    <t>Dr. Pradipto Banerjee</t>
+  </si>
+  <si>
+    <t>Catalog emailed. To follow up over phone after 25/09</t>
+  </si>
+  <si>
+    <t>Avijit Das</t>
+  </si>
+  <si>
+    <t>principal_gkcem@jisgroup.org</t>
+  </si>
+  <si>
+    <t>Wednesday 11am appt fixed with Dr Pradipto Banerjee of FIT</t>
+  </si>
+  <si>
+    <t>Riddha Chaudhuri</t>
+  </si>
+  <si>
+    <t>tpo@ciem.ac.in</t>
+  </si>
+  <si>
+    <t>Catalog emailed. Friday 29/9/23 11am appt fixed</t>
+  </si>
+  <si>
+    <t>Catalog emailed. Appointment Fixed Tuesday 26/0/23 4:30pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +440,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,10 +624,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -584,8 +697,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2020,45 +2139,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="23"/>
       <c r="B1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="H1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
@@ -2071,91 +2203,296 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2">
+        <v>9804605929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
+        <v>9831084446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>9831033357</v>
+      </c>
+      <c r="L7">
+        <v>9830833868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8">
+        <v>9674449931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H22" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{978B0A01-7F5D-40FB-AC17-B147CB232C50}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{0A18B0EF-90F2-4986-B696-EE0F0F60D0C8}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{89C93DB8-F303-4994-8A22-7076CE77E056}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3492CA0-C480-4A70-AFED-C3B0FC8553CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA652D2-96C3-4698-8D96-EA5611E03C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +459,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -628,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,18 +698,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1969,11 +1978,11 @@
       <c r="G57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="22"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="15"/>
@@ -2141,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2159,38 +2168,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="23">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
@@ -2208,7 +2217,7 @@
       <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="K2">
@@ -2216,10 +2225,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
@@ -2237,15 +2246,15 @@
       <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C4" t="s">
@@ -2257,7 +2266,7 @@
       <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>103</v>
       </c>
       <c r="G4" t="s">
@@ -2265,10 +2274,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C5" t="s">
@@ -2280,13 +2289,13 @@
       <c r="E5" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>125</v>
       </c>
       <c r="G5" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="22" t="s">
         <v>104</v>
       </c>
       <c r="K5">
@@ -2294,10 +2303,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C6" t="s">
@@ -2309,7 +2318,7 @@
       <c r="E6" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>112</v>
       </c>
       <c r="G6" t="s">
@@ -2317,10 +2326,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>94</v>
       </c>
       <c r="C7" t="s">
@@ -2346,10 +2355,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C8" t="s">
@@ -2361,13 +2370,13 @@
       <c r="E8" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>126</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="22" t="s">
         <v>124</v>
       </c>
       <c r="K8">
@@ -2469,7 +2478,7 @@
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H22" s="24"/>
+      <c r="H22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2489,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA652D2-96C3-4698-8D96-EA5611E03C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3896A1E-81B7-4B58-AA8F-28776CA70E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -701,6 +701,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -710,7 +711,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,9 +994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1065,15 +1065,15 @@
         <v>50</v>
       </c>
       <c r="H2" s="6">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="I2" s="6">
         <f>18%*H2</f>
-        <v>1440</v>
+        <v>1620</v>
       </c>
       <c r="J2" s="10">
         <f>H2+I2</f>
-        <v>9440</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -1209,15 +1209,15 @@
         <v>50</v>
       </c>
       <c r="H11" s="4">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I11" s="4">
         <f>18%*H11</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J11" s="11">
         <f>H11+I11</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1325,15 +1325,15 @@
         <v>40</v>
       </c>
       <c r="H18" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I18" s="6">
         <f>18%*H18</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J18" s="10">
         <f>H18+I18</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1427,15 +1427,15 @@
         <v>41</v>
       </c>
       <c r="H24" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I24" s="6">
         <f>18%*H24</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J24" s="10">
         <f>H24+I24</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -1543,15 +1543,15 @@
         <v>23</v>
       </c>
       <c r="H31" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I31" s="6">
         <f>18%*H31</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J31" s="10">
         <f>H31+I31</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -1631,15 +1631,15 @@
         <v>23</v>
       </c>
       <c r="H36" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I36" s="6">
         <f>18%*H36</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J36" s="10">
         <f>H36+I36</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
@@ -1747,15 +1747,15 @@
         <v>32</v>
       </c>
       <c r="H43" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I43" s="6">
         <f>18%*H43</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J43" s="10">
         <f>H43+I43</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
@@ -1835,15 +1835,15 @@
         <v>55</v>
       </c>
       <c r="H48" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I48" s="6">
         <f>18%*H48</f>
-        <v>2160</v>
+        <v>1620</v>
       </c>
       <c r="J48" s="10">
         <f>H48+I48</f>
-        <v>14160</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
@@ -1978,11 +1978,11 @@
       <c r="G57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="15"/>
@@ -2150,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2185,15 +2185,15 @@
       <c r="G1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="21">
@@ -2306,7 +2306,7 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C6" t="s">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE90104-C8B0-48F5-890D-44A165334B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BDB289-3380-42D8-A9E6-E1B74FE03328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
-    <sheet name="AIML-School" sheetId="6" r:id="rId2"/>
-    <sheet name="InstitutionMkt" sheetId="3" r:id="rId3"/>
+    <sheet name="AILM-UG-Syllabus" sheetId="7" r:id="rId2"/>
+    <sheet name="AIML-School" sheetId="6" r:id="rId3"/>
+    <sheet name="AIML-School-syllabus" sheetId="8" r:id="rId4"/>
+    <sheet name="InstitutionMkt" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="222">
   <si>
     <t>Topic</t>
   </si>
@@ -212,9 +214,6 @@
     <t>Catalog emailed. Appointment Fixed Tuesday 26/0/23 4:30pm</t>
   </si>
   <si>
-    <t>ML Projects Organization, Hyperparameter Tuning, PyTorch, TensorFlow, Keras</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -224,78 +223,15 @@
     <t>III</t>
   </si>
   <si>
-    <t>Mathematics &amp; Statistics for AI, Machine Learning algorithms &amp; Neural Networks</t>
-  </si>
-  <si>
-    <t>ML Ops, AWS Cloud &amp; Sagemaker</t>
-  </si>
-  <si>
     <t>Gen AI &amp; Prompt Engineering</t>
   </si>
   <si>
-    <t>Course #</t>
-  </si>
-  <si>
-    <t>Topics Covered</t>
-  </si>
-  <si>
-    <t>Duration in Months</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Semester</t>
   </si>
   <si>
     <t>Certification Awarded</t>
   </si>
   <si>
-    <t>Course #
-1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Course #
-1, 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>AI Project Management, Product Engineering, Corporate Communications &amp; Live Project</t>
-  </si>
-  <si>
-    <t>IV &amp; V</t>
-  </si>
-  <si>
-    <t>Course #
-1, 2, 3 &amp; 4</t>
-  </si>
-  <si>
-    <t>Deep Learning, Sequence Models (NLP, RNN, LLM, GAN) &amp; Computer (CNN), DSP &amp; OpenCV</t>
-  </si>
-  <si>
-    <t>Cert I: Gen AI &amp; Prompt Engineering</t>
-  </si>
-  <si>
-    <t>Cert I: Data Analysis</t>
-  </si>
-  <si>
-    <t>Cert II: AI/ML Data Science (NLP / Computer Vision)</t>
-  </si>
-  <si>
-    <t>Cert III: AI/ML Engineering</t>
-  </si>
-  <si>
-    <t>1 Year Work Experience: AI/ML Engineering</t>
-  </si>
-  <si>
-    <t>Gen AI, Prompt Engineering (OpenAI-ChatGPT, AWS Sagemaker, LangChain, Semantic Search) &amp; AI Ethics</t>
-  </si>
-  <si>
-    <t>Python (Basics, Collections, Vectorization, Numpy, Pandas, Matpoltlib, Seaborn) &amp; AI Ethics</t>
-  </si>
-  <si>
     <t>III-V</t>
   </si>
   <si>
@@ -323,24 +259,15 @@
     <t>Product Engineering</t>
   </si>
   <si>
-    <t>English Grooming</t>
-  </si>
-  <si>
     <t>Public Speaking</t>
   </si>
   <si>
-    <t>Corporate Comms</t>
-  </si>
-  <si>
     <t>News Delivering</t>
   </si>
   <si>
     <t>Writing Project Reports</t>
   </si>
   <si>
-    <t>Basic German Language</t>
-  </si>
-  <si>
     <t>Cultural Sensitivity</t>
   </si>
   <si>
@@ -374,9 +301,6 @@
     <t>Presentation Skills</t>
   </si>
   <si>
-    <t>Project Demo</t>
-  </si>
-  <si>
     <t>Ethics &amp; Emotional Intelligence</t>
   </si>
   <si>
@@ -425,9 +349,6 @@
     <t>₹4,000</t>
   </si>
   <si>
-    <t>Discounted Price</t>
-  </si>
-  <si>
     <t>₹3,000</t>
   </si>
   <si>
@@ -458,32 +379,591 @@
     <t>Advanced IoT- Raspberry Pie</t>
   </si>
   <si>
-    <t>Pitch Deck &amp; Elevator Pitch</t>
-  </si>
-  <si>
-    <t>₹30,000</t>
-  </si>
-  <si>
-    <t>₹12,000</t>
-  </si>
-  <si>
-    <t>₹0</t>
-  </si>
-  <si>
-    <t>₹1,20,000</t>
-  </si>
-  <si>
-    <t>₹60,000</t>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>Original Price (₹)</t>
+  </si>
+  <si>
+    <t>5 Lakhs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">60K </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(88% off)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gen AI &amp; Prompt Engineer</t>
+  </si>
+  <si>
+    <t>Data Analysis Engineer</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Discounted Offer (₹)</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Data Science Engineer</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Specialist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">4.  Data Science
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>- Deep dive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+5.  Gen AI - Prompt Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+      - LLM (OpenAI-ChatGPT)
+      - LangChain &amp; Semantic Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>6.   Machine Learning
+7.   Neural Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>.   AI Libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+       - TensorFlow
+       - PyTorch
+       - Keras</t>
+    </r>
+  </si>
+  <si>
+    <t>17.  ML Ops
+18.  AWS Cloud &amp; Sagemaker</t>
+  </si>
+  <si>
+    <t>19.  Live Project
+20. Product Engineering
+21.   Agile Project Management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>1.   Python for AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+        - Basic Constructs
+        - Optimized Programming for AI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>2.  Data Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+        - Numpy &amp; Pandas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">3.  Data Visialization
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>- Lucidify Maths &amp; Stats
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">.   Artificial Intelligence
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>- Overview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.  Deep Learning
+11.   Sequence Models
+       - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>NLP (using TensorFlow)
+       - RNN (using TensorFlow)
+       - DSP (Optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">
+12.  Computer Vission
+      - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>CNN (using TensorFlow)
+       - OpenCV (Optional)
+       - AI in Medical Field (Optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13.  ML Projects Organization
+14.  Hyperparameter Tuning
+15.  TensorFlow - Deep dive
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">- Data &amp; Deployment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">16.  GAN
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>- Building, improving &amp; applying GANs
+        - Building LLM</t>
+    </r>
+  </si>
+  <si>
+    <t>Sl#</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Python for AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro, Installation, </t>
+  </si>
+  <si>
+    <t>Telusko</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QXeEoD0pB3E&amp;list=PLsyeobzWxl7poL9JTVyndKe62ieoN-MZ3</t>
+  </si>
+  <si>
+    <t>Machine Learning Specialization</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning: Regression and Classification</t>
+  </si>
+  <si>
+    <t>Prompt Engineering: LLM &amp; GAN</t>
+  </si>
+  <si>
+    <t>Gen AI &amp; ChatGPT Overview</t>
+  </si>
+  <si>
+    <t>ChatGPT Prompt Engineering for Developers</t>
+  </si>
+  <si>
+    <t>ChatGPT API: Building Systems</t>
+  </si>
+  <si>
+    <t>LangChain: LLM App Dev</t>
+  </si>
+  <si>
+    <t>LangChain: Chat with Data</t>
+  </si>
+  <si>
+    <t>LLM: Finetuning</t>
+  </si>
+  <si>
+    <t>LLM: Semantic Search</t>
+  </si>
+  <si>
+    <t>Gradio: Build Gen AI Apps</t>
+  </si>
+  <si>
+    <t>Evaluate &amp; Debug Gen AI Models by Weights &amp; Biases</t>
+  </si>
+  <si>
+    <t>Diffusion Models</t>
+  </si>
+  <si>
+    <t>LLM Apps: Quality &amp; Safety</t>
+  </si>
+  <si>
+    <t>Vector Databases: Embeddings to Applications</t>
+  </si>
+  <si>
+    <t>LangChain: Functions, Tools and Agents</t>
+  </si>
+  <si>
+    <t>LLM: Pair Programming</t>
+  </si>
+  <si>
+    <t>Text Embeddings</t>
+  </si>
+  <si>
+    <t>Semantic Kernel: Use cases for AI Plugins</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Soft Skills</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>AI - Data Sci Basics</t>
+  </si>
+  <si>
+    <t>Advnc  Data Sci</t>
+  </si>
+  <si>
+    <t>AI - Comp Vision</t>
+  </si>
+  <si>
+    <t>AI - NLP</t>
+  </si>
+  <si>
+    <t>Cy Sec Basics</t>
+  </si>
+  <si>
+    <t>IoT, Robotics</t>
+  </si>
+  <si>
+    <t>Advnc IoT, Robotics</t>
+  </si>
+  <si>
+    <t>Faculty 1</t>
+  </si>
+  <si>
+    <t>Anirban</t>
+  </si>
+  <si>
+    <t>Bappaditya</t>
+  </si>
+  <si>
+    <t>Promotional Offers</t>
+  </si>
+  <si>
+    <t>Faculty 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring a friend &amp; get 50% off on yourself </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>(NOT combined with other offers)</t>
+    </r>
+  </si>
+  <si>
+    <t>Faculty 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pay at once and get 50% off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>(NOT combined with other offers)</t>
+    </r>
+  </si>
+  <si>
+    <t>Faculty 4</t>
+  </si>
+  <si>
+    <t>Hours/Week</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Faculty Payout/Month ₹</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per Month ₹</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Offer Price /Year ₹</t>
+  </si>
+  <si>
+    <t>&gt;=50</t>
+  </si>
+  <si>
+    <t>&gt;=20</t>
+  </si>
+  <si>
+    <t>&gt;=10</t>
+  </si>
+  <si>
+    <t>&gt;=5</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>Not Confirmed</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Agile Project Management</t>
+  </si>
+  <si>
+    <t>Corporate Comms (Presentation, email, meetings)</t>
+  </si>
+  <si>
+    <t>Pitch Deck, Elevator Pitch, Project Demo</t>
+  </si>
+  <si>
+    <t>Project Demo, Youtubing</t>
+  </si>
+  <si>
+    <t>Forign Language (Basic German)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,8 +1019,47 @@
       <color theme="1"/>
       <name val="Oxygen"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,8 +1108,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -734,14 +1313,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -750,11 +1387,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -766,7 +1405,68 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -789,7 +1489,210 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -802,25 +1705,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -830,13 +1729,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -845,12 +1740,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -861,37 +1752,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,86 +1773,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -989,73 +1787,493 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1331,232 +2549,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.53125" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="62.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="56"/>
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="74.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="58"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="2:6" ht="86.65" x14ac:dyDescent="0.45">
+      <c r="B7" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="2:6" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.53125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.19921875" customWidth="1"/>
-    <col min="4" max="4" width="69.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:9" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17">
-        <v>3</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="22">
-        <v>6</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="28">
-        <v>4</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="32">
-        <v>6</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="2:9" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="38">
-        <v>5</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="41">
-        <v>12</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>146</v>
+      <c r="H2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD66C68A-1547-4A40-B03D-2BEFB1AB4308}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1569,252 +2886,252 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="74"/>
+      <c r="C5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="74"/>
+      <c r="C6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="74"/>
+      <c r="C7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="75"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="77"/>
+      <c r="C10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="79"/>
+      <c r="C12" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="F12" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="81"/>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="81"/>
+      <c r="C15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="E15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="82"/>
+      <c r="C16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="61"/>
-      <c r="C5" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="61"/>
-      <c r="C6" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="61"/>
-      <c r="C7" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="66"/>
-      <c r="C10" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="74"/>
-      <c r="C14" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="74"/>
-      <c r="C15" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="75"/>
-      <c r="C16" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +3145,1077 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11F02BE-E519-4FA8-AA4E-664EDBC1FCE7}">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+    </row>
+    <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="84"/>
+      <c r="B3" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+    </row>
+    <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
+      <c r="A4" s="84"/>
+      <c r="B4" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113"/>
+    </row>
+    <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="84"/>
+      <c r="B5" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="116"/>
+    </row>
+    <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="84"/>
+      <c r="B6" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="125"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="126"/>
+    </row>
+    <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="84"/>
+      <c r="B7" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="R7" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="T7" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="U7" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="V7" s="132" t="s">
+        <v>202</v>
+      </c>
+      <c r="W7" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="X7" s="133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A8" s="84"/>
+      <c r="B8" s="134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="140" t="s">
+        <v>209</v>
+      </c>
+      <c r="O8" s="141">
+        <v>1</v>
+      </c>
+      <c r="P8" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="143">
+        <v>2</v>
+      </c>
+      <c r="R8" s="144">
+        <v>6000</v>
+      </c>
+      <c r="S8" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="146">
+        <v>36000</v>
+      </c>
+      <c r="U8" s="141">
+        <v>32000</v>
+      </c>
+      <c r="V8" s="142">
+        <v>16000</v>
+      </c>
+      <c r="W8" s="142">
+        <v>8000</v>
+      </c>
+      <c r="X8" s="143">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A9" s="84"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" s="153" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="154">
+        <v>1</v>
+      </c>
+      <c r="P9" s="155">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="156">
+        <v>2</v>
+      </c>
+      <c r="R9" s="157">
+        <v>6000</v>
+      </c>
+      <c r="S9" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="159">
+        <v>36000</v>
+      </c>
+      <c r="U9" s="154">
+        <v>32000</v>
+      </c>
+      <c r="V9" s="155">
+        <v>16000</v>
+      </c>
+      <c r="W9" s="155">
+        <v>8000</v>
+      </c>
+      <c r="X9" s="156">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A10" s="84"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="160">
+        <v>2025</v>
+      </c>
+      <c r="E10" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="161" t="s">
+        <v>208</v>
+      </c>
+      <c r="O10" s="154">
+        <v>1</v>
+      </c>
+      <c r="P10" s="155">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="156">
+        <v>2</v>
+      </c>
+      <c r="R10" s="157">
+        <v>5000</v>
+      </c>
+      <c r="S10" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="159">
+        <v>30000</v>
+      </c>
+      <c r="U10" s="154">
+        <v>25600</v>
+      </c>
+      <c r="V10" s="155">
+        <v>12800</v>
+      </c>
+      <c r="W10" s="155">
+        <v>6400</v>
+      </c>
+      <c r="X10" s="156">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="84"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="162"/>
+      <c r="E11" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="166" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="166" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11" s="167" t="s">
+        <v>208</v>
+      </c>
+      <c r="O11" s="168">
+        <v>1</v>
+      </c>
+      <c r="P11" s="169">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="170">
+        <v>2</v>
+      </c>
+      <c r="R11" s="171">
+        <v>5000</v>
+      </c>
+      <c r="S11" s="172">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="173">
+        <v>30000</v>
+      </c>
+      <c r="U11" s="168">
+        <v>25600</v>
+      </c>
+      <c r="V11" s="169">
+        <v>12800</v>
+      </c>
+      <c r="W11" s="169">
+        <v>6400</v>
+      </c>
+      <c r="X11" s="170">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A12" s="84"/>
+      <c r="B12" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="134">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="N12" s="175" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="141">
+        <v>1</v>
+      </c>
+      <c r="P12" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="143">
+        <v>2</v>
+      </c>
+      <c r="R12" s="144">
+        <v>6000</v>
+      </c>
+      <c r="S12" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="146">
+        <v>36000</v>
+      </c>
+      <c r="U12" s="141">
+        <v>32000</v>
+      </c>
+      <c r="V12" s="142">
+        <v>16000</v>
+      </c>
+      <c r="W12" s="142">
+        <v>8000</v>
+      </c>
+      <c r="X12" s="143">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A13" s="84"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="147"/>
+      <c r="E13" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" s="177" t="s">
+        <v>208</v>
+      </c>
+      <c r="O13" s="154">
+        <v>1</v>
+      </c>
+      <c r="P13" s="155">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="156">
+        <v>2</v>
+      </c>
+      <c r="R13" s="157">
+        <v>6000</v>
+      </c>
+      <c r="S13" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="159">
+        <v>36000</v>
+      </c>
+      <c r="U13" s="154">
+        <v>32000</v>
+      </c>
+      <c r="V13" s="155">
+        <v>16000</v>
+      </c>
+      <c r="W13" s="155">
+        <v>8000</v>
+      </c>
+      <c r="X13" s="156">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A14" s="84"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="147"/>
+      <c r="E14" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="178" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" s="177" t="s">
+        <v>208</v>
+      </c>
+      <c r="O14" s="154">
+        <v>1</v>
+      </c>
+      <c r="P14" s="155">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="156">
+        <v>2</v>
+      </c>
+      <c r="R14" s="157">
+        <v>5000</v>
+      </c>
+      <c r="S14" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="159">
+        <v>30000</v>
+      </c>
+      <c r="U14" s="154">
+        <v>25600</v>
+      </c>
+      <c r="V14" s="155">
+        <v>12800</v>
+      </c>
+      <c r="W14" s="155">
+        <v>6400</v>
+      </c>
+      <c r="X14" s="156">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="84"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="162"/>
+      <c r="E15" s="179" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="180" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="O15" s="168">
+        <v>1</v>
+      </c>
+      <c r="P15" s="169">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="170">
+        <v>2</v>
+      </c>
+      <c r="R15" s="171">
+        <v>5000</v>
+      </c>
+      <c r="S15" s="172">
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="173">
+        <v>30000</v>
+      </c>
+      <c r="U15" s="168">
+        <v>25600</v>
+      </c>
+      <c r="V15" s="169">
+        <v>12800</v>
+      </c>
+      <c r="W15" s="169">
+        <v>6400</v>
+      </c>
+      <c r="X15" s="170">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A16" s="84"/>
+      <c r="B16" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="L16" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="M16" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="N16" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="O16" s="141">
+        <v>1</v>
+      </c>
+      <c r="P16" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="143">
+        <v>2</v>
+      </c>
+      <c r="R16" s="144">
+        <v>6000</v>
+      </c>
+      <c r="S16" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="146">
+        <v>36000</v>
+      </c>
+      <c r="U16" s="141">
+        <v>32000</v>
+      </c>
+      <c r="V16" s="142">
+        <v>16000</v>
+      </c>
+      <c r="W16" s="142">
+        <v>8000</v>
+      </c>
+      <c r="X16" s="143">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="84"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="183"/>
+      <c r="E17" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="M17" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="167" t="s">
+        <v>215</v>
+      </c>
+      <c r="O17" s="168">
+        <v>1</v>
+      </c>
+      <c r="P17" s="169">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="170">
+        <v>2</v>
+      </c>
+      <c r="R17" s="171">
+        <v>6000</v>
+      </c>
+      <c r="S17" s="172">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="173">
+        <v>36000</v>
+      </c>
+      <c r="U17" s="168">
+        <v>32000</v>
+      </c>
+      <c r="V17" s="169">
+        <v>16000</v>
+      </c>
+      <c r="W17" s="169">
+        <v>8000</v>
+      </c>
+      <c r="X17" s="170">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:X5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E8:N17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -1867,15 +4254,15 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BDB289-3380-42D8-A9E6-E1B74FE03328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F3BD48-05A0-43B0-B42D-4215D5CAFFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="228">
   <si>
     <t>Topic</t>
   </si>
@@ -957,6 +957,24 @@
   </si>
   <si>
     <t>Forign Language (Basic German)</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>MachineLearning</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/machine-learning-course/home/week/1</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>Machine Learning Course</t>
   </si>
 </sst>
 </file>
@@ -1860,6 +1878,231 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1890,30 +2133,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1944,308 +2163,107 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2582,7 +2600,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="130" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2599,7 +2617,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="62.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="56"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="5" t="s">
         <v>125</v>
       </c>
@@ -2614,56 +2632,56 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="74.25" x14ac:dyDescent="0.45">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="136" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="122" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="58"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="66"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="123"/>
     </row>
     <row r="7" spans="2:6" ht="86.65" x14ac:dyDescent="0.45">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="138" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="124" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="60"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="9" spans="2:6" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="51" t="s">
@@ -2709,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2720,10 +2738,11 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1328125" customWidth="1"/>
+    <col min="8" max="8" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2742,8 +2761,11 @@
       <c r="H1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2754,115 +2776,133 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E8" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F8" t="s">
         <v>147</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G8" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
         <v>150</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
         <v>152</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E14" t="s">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E15" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E16" t="s">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" t="s">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E18" t="s">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E19" t="s">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E21" t="s">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E23" t="s">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E24" t="s">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E25" t="s">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E26" t="s">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2920,7 +2960,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="140" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -2933,7 +2973,7 @@
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="74"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
@@ -2944,7 +2984,7 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="74"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="12" t="s">
         <v>94</v>
       </c>
@@ -2955,7 +2995,7 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="74"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="12" t="s">
         <v>93</v>
       </c>
@@ -2966,7 +3006,7 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="75"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
         <v>84</v>
@@ -2975,7 +3015,7 @@
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="143" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -2992,7 +3032,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="77"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="16" t="s">
         <v>96</v>
       </c>
@@ -3007,7 +3047,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="145" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -3024,7 +3064,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="79"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="33" t="s">
         <v>99</v>
       </c>
@@ -3039,7 +3079,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="147" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -3056,7 +3096,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="81"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
@@ -3071,7 +3111,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="81"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
       </c>
@@ -3086,7 +3126,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="82"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="16" t="s">
         <v>103</v>
       </c>
@@ -3149,1045 +3189,1047 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11F02BE-E519-4FA8-AA4E-664EDBC1FCE7}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="165" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="84"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="168" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97" t="s">
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="99" t="s">
+      <c r="M3" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="101" t="s">
+      <c r="O3" s="171" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="103"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="173"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
-      <c r="A4" s="84"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="109" t="s">
+      <c r="M4" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="111" t="s">
+      <c r="O4" s="177" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="113"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="179"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="84"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="114" t="s">
+      <c r="O5" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="116"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="182"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="84"/>
-      <c r="B6" s="117" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="120" t="s">
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="124" t="s">
+      <c r="O6" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="124" t="s">
+      <c r="P6" s="159"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="125"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="124" t="s">
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="126"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="84"/>
-      <c r="B7" s="127" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="131" t="s">
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="P7" s="132" t="s">
+      <c r="P7" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="Q7" s="133" t="s">
+      <c r="Q7" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="R7" s="131" t="s">
+      <c r="R7" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="S7" s="132" t="s">
+      <c r="S7" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="T7" s="133" t="s">
+      <c r="T7" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="U7" s="131" t="s">
+      <c r="U7" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="V7" s="132" t="s">
+      <c r="V7" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="W7" s="132" t="s">
+      <c r="W7" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="X7" s="133" t="s">
+      <c r="X7" s="78" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A8" s="84"/>
-      <c r="B8" s="134" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="150" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="I8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="K8" s="139" t="s">
+      <c r="F8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="L8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="M8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="N8" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="O8" s="141">
+      <c r="L8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="O8" s="84">
         <v>1</v>
       </c>
-      <c r="P8" s="142">
+      <c r="P8" s="85">
         <v>1</v>
       </c>
-      <c r="Q8" s="143">
+      <c r="Q8" s="86">
         <v>2</v>
       </c>
-      <c r="R8" s="144">
+      <c r="R8" s="87">
         <v>6000</v>
       </c>
-      <c r="S8" s="145">
+      <c r="S8" s="88">
         <v>0.5</v>
       </c>
-      <c r="T8" s="146">
+      <c r="T8" s="89">
         <v>36000</v>
       </c>
-      <c r="U8" s="141">
+      <c r="U8" s="84">
         <v>32000</v>
       </c>
-      <c r="V8" s="142">
+      <c r="V8" s="85">
         <v>16000</v>
       </c>
-      <c r="W8" s="142">
+      <c r="W8" s="85">
         <v>8000</v>
       </c>
-      <c r="X8" s="143">
+      <c r="X8" s="86">
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A9" s="84"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="148" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150" t="s">
+      <c r="D9" s="163"/>
+      <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="I9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="J9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="K9" s="152" t="s">
+      <c r="F9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="L9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="M9" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="N9" s="153" t="s">
-        <v>209</v>
-      </c>
-      <c r="O9" s="154">
+      <c r="L9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="95">
         <v>1</v>
       </c>
-      <c r="P9" s="155">
+      <c r="P9" s="96">
         <v>1</v>
       </c>
-      <c r="Q9" s="156">
+      <c r="Q9" s="97">
         <v>2</v>
       </c>
-      <c r="R9" s="157">
+      <c r="R9" s="98">
         <v>6000</v>
       </c>
-      <c r="S9" s="158">
+      <c r="S9" s="99">
         <v>0.5</v>
       </c>
-      <c r="T9" s="159">
+      <c r="T9" s="100">
         <v>36000</v>
       </c>
-      <c r="U9" s="154">
+      <c r="U9" s="95">
         <v>32000</v>
       </c>
-      <c r="V9" s="155">
+      <c r="V9" s="96">
         <v>16000</v>
       </c>
-      <c r="W9" s="155">
+      <c r="W9" s="96">
         <v>8000</v>
       </c>
-      <c r="X9" s="156">
+      <c r="X9" s="97">
         <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A10" s="84"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="164">
         <v>2025</v>
       </c>
-      <c r="E10" s="150" t="s">
+      <c r="E10" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="152" t="s">
+      <c r="F10" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="152" t="s">
+      <c r="J10" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="L10" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="M10" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="N10" s="161" t="s">
+      <c r="L10" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="O10" s="154">
+      <c r="O10" s="95">
         <v>1</v>
       </c>
-      <c r="P10" s="155">
+      <c r="P10" s="96">
         <v>1</v>
       </c>
-      <c r="Q10" s="156">
+      <c r="Q10" s="97">
         <v>2</v>
       </c>
-      <c r="R10" s="157">
+      <c r="R10" s="98">
         <v>5000</v>
       </c>
-      <c r="S10" s="158">
+      <c r="S10" s="99">
         <v>0.5</v>
       </c>
-      <c r="T10" s="159">
+      <c r="T10" s="100">
         <v>30000</v>
       </c>
-      <c r="U10" s="154">
+      <c r="U10" s="95">
         <v>25600</v>
       </c>
-      <c r="V10" s="155">
+      <c r="V10" s="96">
         <v>12800</v>
       </c>
-      <c r="W10" s="155">
+      <c r="W10" s="96">
         <v>6400</v>
       </c>
-      <c r="X10" s="156">
+      <c r="X10" s="97">
         <v>3200</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="84"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="164" t="s">
+      <c r="D11" s="152"/>
+      <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" s="166" t="s">
+      <c r="F11" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="K11" s="166" t="s">
+      <c r="J11" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="166" t="s">
+      <c r="L11" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="M11" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="N11" s="167" t="s">
+      <c r="M11" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="O11" s="168">
+      <c r="O11" s="107">
         <v>1</v>
       </c>
-      <c r="P11" s="169">
+      <c r="P11" s="108">
         <v>1</v>
       </c>
-      <c r="Q11" s="170">
+      <c r="Q11" s="109">
         <v>2</v>
       </c>
-      <c r="R11" s="171">
+      <c r="R11" s="110">
         <v>5000</v>
       </c>
-      <c r="S11" s="172">
+      <c r="S11" s="111">
         <v>0.5</v>
       </c>
-      <c r="T11" s="173">
+      <c r="T11" s="112">
         <v>30000</v>
       </c>
-      <c r="U11" s="168">
+      <c r="U11" s="107">
         <v>25600</v>
       </c>
-      <c r="V11" s="169">
+      <c r="V11" s="108">
         <v>12800</v>
       </c>
-      <c r="W11" s="169">
+      <c r="W11" s="108">
         <v>6400</v>
       </c>
-      <c r="X11" s="170">
+      <c r="X11" s="109">
         <v>3200</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A12" s="84"/>
-      <c r="B12" s="134" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="150" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="150">
         <v>2022</v>
       </c>
-      <c r="E12" s="174" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="K12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" s="139" t="s">
+      <c r="E12" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="M12" s="139" t="s">
+      <c r="M12" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="N12" s="175" t="s">
+      <c r="N12" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="O12" s="141">
+      <c r="O12" s="84">
         <v>1</v>
       </c>
-      <c r="P12" s="142">
+      <c r="P12" s="85">
         <v>1</v>
       </c>
-      <c r="Q12" s="143">
+      <c r="Q12" s="86">
         <v>2</v>
       </c>
-      <c r="R12" s="144">
+      <c r="R12" s="87">
         <v>6000</v>
       </c>
-      <c r="S12" s="145">
+      <c r="S12" s="88">
         <v>0.5</v>
       </c>
-      <c r="T12" s="146">
+      <c r="T12" s="89">
         <v>36000</v>
       </c>
-      <c r="U12" s="141">
+      <c r="U12" s="84">
         <v>32000</v>
       </c>
-      <c r="V12" s="142">
+      <c r="V12" s="85">
         <v>16000</v>
       </c>
-      <c r="W12" s="142">
+      <c r="W12" s="85">
         <v>8000</v>
       </c>
-      <c r="X12" s="143">
+      <c r="X12" s="86">
         <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A13" s="84"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="J13" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="K13" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="152" t="s">
+      <c r="D13" s="151"/>
+      <c r="E13" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="M13" s="152" t="s">
+      <c r="M13" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="177" t="s">
+      <c r="N13" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="O13" s="154">
+      <c r="O13" s="95">
         <v>1</v>
       </c>
-      <c r="P13" s="155">
+      <c r="P13" s="96">
         <v>1</v>
       </c>
-      <c r="Q13" s="156">
+      <c r="Q13" s="97">
         <v>2</v>
       </c>
-      <c r="R13" s="157">
+      <c r="R13" s="98">
         <v>6000</v>
       </c>
-      <c r="S13" s="158">
+      <c r="S13" s="99">
         <v>0.5</v>
       </c>
-      <c r="T13" s="159">
+      <c r="T13" s="100">
         <v>36000</v>
       </c>
-      <c r="U13" s="154">
+      <c r="U13" s="95">
         <v>32000</v>
       </c>
-      <c r="V13" s="155">
+      <c r="V13" s="96">
         <v>16000</v>
       </c>
-      <c r="W13" s="155">
+      <c r="W13" s="96">
         <v>8000</v>
       </c>
-      <c r="X13" s="156">
+      <c r="X13" s="97">
         <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A14" s="84"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="152" t="s">
+      <c r="D14" s="151"/>
+      <c r="E14" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="I14" s="152" t="s">
+      <c r="H14" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="J14" s="178" t="s">
-        <v>209</v>
-      </c>
-      <c r="K14" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="152" t="s">
+      <c r="J14" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="M14" s="152" t="s">
+      <c r="M14" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="N14" s="177" t="s">
+      <c r="N14" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="O14" s="154">
+      <c r="O14" s="95">
         <v>1</v>
       </c>
-      <c r="P14" s="155">
+      <c r="P14" s="96">
         <v>1</v>
       </c>
-      <c r="Q14" s="156">
+      <c r="Q14" s="97">
         <v>2</v>
       </c>
-      <c r="R14" s="157">
+      <c r="R14" s="98">
         <v>5000</v>
       </c>
-      <c r="S14" s="158">
+      <c r="S14" s="99">
         <v>0.5</v>
       </c>
-      <c r="T14" s="159">
+      <c r="T14" s="100">
         <v>30000</v>
       </c>
-      <c r="U14" s="154">
+      <c r="U14" s="95">
         <v>25600</v>
       </c>
-      <c r="V14" s="155">
+      <c r="V14" s="96">
         <v>12800</v>
       </c>
-      <c r="W14" s="155">
+      <c r="W14" s="96">
         <v>6400</v>
       </c>
-      <c r="X14" s="156">
+      <c r="X14" s="97">
         <v>3200</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="84"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="179" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="166" t="s">
+      <c r="D15" s="152"/>
+      <c r="E15" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="166" t="s">
+      <c r="H15" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="J15" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="L15" s="166" t="s">
+      <c r="J15" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="M15" s="166" t="s">
+      <c r="M15" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="181" t="s">
+      <c r="N15" s="120" t="s">
         <v>208</v>
       </c>
-      <c r="O15" s="168">
+      <c r="O15" s="107">
         <v>1</v>
       </c>
-      <c r="P15" s="169">
+      <c r="P15" s="108">
         <v>1</v>
       </c>
-      <c r="Q15" s="170">
+      <c r="Q15" s="109">
         <v>2</v>
       </c>
-      <c r="R15" s="171">
+      <c r="R15" s="110">
         <v>5000</v>
       </c>
-      <c r="S15" s="172">
+      <c r="S15" s="111">
         <v>0.5</v>
       </c>
-      <c r="T15" s="173">
+      <c r="T15" s="112">
         <v>30000</v>
       </c>
-      <c r="U15" s="168">
+      <c r="U15" s="107">
         <v>25600</v>
       </c>
-      <c r="V15" s="169">
+      <c r="V15" s="108">
         <v>12800</v>
       </c>
-      <c r="W15" s="169">
+      <c r="W15" s="108">
         <v>6400</v>
       </c>
-      <c r="X15" s="170">
+      <c r="X15" s="109">
         <v>3200</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A16" s="84"/>
-      <c r="B16" s="134" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="E16" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="J16" s="138" t="s">
+      <c r="F16" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="K16" s="139" t="s">
+      <c r="K16" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="L16" s="139" t="s">
+      <c r="L16" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="M16" s="139" t="s">
+      <c r="M16" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="N16" s="182" t="s">
+      <c r="N16" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="O16" s="141">
+      <c r="O16" s="84">
         <v>1</v>
       </c>
-      <c r="P16" s="142">
+      <c r="P16" s="85">
         <v>1</v>
       </c>
-      <c r="Q16" s="143">
+      <c r="Q16" s="86">
         <v>2</v>
       </c>
-      <c r="R16" s="144">
+      <c r="R16" s="87">
         <v>6000</v>
       </c>
-      <c r="S16" s="145">
+      <c r="S16" s="88">
         <v>0.5</v>
       </c>
-      <c r="T16" s="146">
+      <c r="T16" s="89">
         <v>36000</v>
       </c>
-      <c r="U16" s="141">
+      <c r="U16" s="84">
         <v>32000</v>
       </c>
-      <c r="V16" s="142">
+      <c r="V16" s="85">
         <v>16000</v>
       </c>
-      <c r="W16" s="142">
+      <c r="W16" s="85">
         <v>8000</v>
       </c>
-      <c r="X16" s="143">
+      <c r="X16" s="86">
         <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="84"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="164" t="s">
+      <c r="D17" s="154"/>
+      <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="H17" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="J17" s="165" t="s">
+      <c r="F17" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="166" t="s">
+      <c r="K17" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="L17" s="166" t="s">
+      <c r="L17" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="166" t="s">
+      <c r="M17" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="N17" s="167" t="s">
+      <c r="N17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="O17" s="168">
+      <c r="O17" s="107">
         <v>1</v>
       </c>
-      <c r="P17" s="169">
+      <c r="P17" s="108">
         <v>1</v>
       </c>
-      <c r="Q17" s="170">
+      <c r="Q17" s="109">
         <v>2</v>
       </c>
-      <c r="R17" s="171">
+      <c r="R17" s="110">
         <v>6000</v>
       </c>
-      <c r="S17" s="172">
+      <c r="S17" s="111">
         <v>0.5</v>
       </c>
-      <c r="T17" s="173">
+      <c r="T17" s="112">
         <v>36000</v>
       </c>
-      <c r="U17" s="168">
+      <c r="U17" s="107">
         <v>32000</v>
       </c>
-      <c r="V17" s="169">
+      <c r="V17" s="108">
         <v>16000</v>
       </c>
-      <c r="W17" s="169">
+      <c r="W17" s="108">
         <v>8000</v>
       </c>
-      <c r="X17" s="170">
+      <c r="X17" s="109">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="O4:X4"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4195,13 +4237,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4254,15 +4294,15 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="83"/>
+      <c r="L1" s="183"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F3BD48-05A0-43B0-B42D-4215D5CAFFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65A759-84EE-4BE6-98CD-B5C83FDB3EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="228">
   <si>
     <t>Topic</t>
   </si>
@@ -962,9 +962,6 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>MachineLearning</t>
-  </si>
-  <si>
     <t>Intro</t>
   </si>
   <si>
@@ -974,7 +971,10 @@
     <t>Docs</t>
   </si>
   <si>
-    <t>Machine Learning Course</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\010101ML\AnodiamMaterials</t>
   </si>
 </sst>
 </file>
@@ -2163,6 +2163,75 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2175,6 +2244,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,81 +2260,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2569,7 +2569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2729,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2739,6 +2741,7 @@
     <col min="2" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1328125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2762,7 +2765,7 @@
         <v>145</v>
       </c>
       <c r="I1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -2779,16 +2782,19 @@
         <v>222</v>
       </c>
       <c r="E2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="s">
         <v>223</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>227</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -2913,7 +2919,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3190,7 +3196,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3223,11 +3229,11 @@
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3271,11 +3277,11 @@
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3306,26 +3312,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="171" t="s">
+      <c r="O3" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="173"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="164"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3356,26 +3362,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="177" t="s">
+      <c r="O4" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="167"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3406,26 +3412,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="180" t="s">
+      <c r="O5" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="155"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3456,22 +3462,22 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="158" t="s">
+      <c r="O6" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="158" t="s">
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="158" t="s">
+      <c r="S6" s="169"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="160"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="170"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
@@ -3484,18 +3490,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3529,13 +3535,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="173" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3601,11 +3607,11 @@
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="163"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3669,11 +3675,11 @@
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="164">
+      <c r="D10" s="178">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3739,11 +3745,11 @@
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="152"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -3807,13 +3813,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="173" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="173">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -3879,11 +3885,11 @@
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="151"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -3947,11 +3953,11 @@
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="151"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4015,11 +4021,11 @@
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="152"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4083,13 +4089,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="173" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4155,11 +4161,11 @@
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4223,6 +4229,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="O5:X5"/>
     <mergeCell ref="B2:D2"/>
@@ -4230,18 +4248,6 @@
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4259,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65A759-84EE-4BE6-98CD-B5C83FDB3EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D1157-D50B-49BE-8B9B-B9F3683C61BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
@@ -2163,6 +2163,51 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2215,51 +2260,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2569,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2919,7 +2919,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3229,11 +3229,11 @@
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3277,11 +3277,11 @@
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3312,26 +3312,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="162" t="s">
+      <c r="O3" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="164"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="179"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3362,26 +3362,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="165" t="s">
+      <c r="O4" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="167"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="181"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="X4" s="182"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3412,26 +3412,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="153" t="s">
+      <c r="O5" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="155"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3462,22 +3462,22 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="168" t="s">
+      <c r="P6" s="159"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="169"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="168" t="s">
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
@@ -3490,18 +3490,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3535,13 +3535,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="150" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="153" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3607,11 +3607,11 @@
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="174"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3675,11 +3675,11 @@
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="174"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="164">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3745,11 +3745,11 @@
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="175"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="150" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="150">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -3885,11 +3885,11 @@
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="174"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -3953,11 +3953,11 @@
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="174"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4021,11 +4021,11 @@
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="175"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="175"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4089,13 +4089,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="150" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="153" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4161,11 +4161,11 @@
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="175"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4229,11 +4229,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="O4:X4"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4241,13 +4243,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4265,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D1157-D50B-49BE-8B9B-B9F3683C61BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E22273-FE9B-4424-B2D2-0E705FA5DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="232">
   <si>
     <t>Topic</t>
   </si>
@@ -975,6 +975,18 @@
   </si>
   <si>
     <t>D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\010101ML\AnodiamMaterials</t>
+  </si>
+  <si>
+    <t>Maths &amp; Stats</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/machine-learning-linear-algebra/home/week/1</t>
+  </si>
+  <si>
+    <t>Linear Equations</t>
   </si>
 </sst>
 </file>
@@ -2163,6 +2175,75 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2175,6 +2256,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,81 +2272,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2569,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2729,10 +2741,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2905,10 +2918,28 @@
         <v>168</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
+    <hyperlink ref="H36" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3229,11 +3260,11 @@
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3277,11 +3308,11 @@
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3312,26 +3343,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="179"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="164"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3362,26 +3393,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="180" t="s">
+      <c r="O4" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="182"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="167"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3412,26 +3443,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="168" t="s">
+      <c r="O5" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="170"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="155"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3462,22 +3493,22 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="158" t="s">
+      <c r="O6" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="158" t="s">
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="158" t="s">
+      <c r="S6" s="169"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="160"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="170"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
@@ -3490,18 +3521,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3535,13 +3566,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="173" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3607,11 +3638,11 @@
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="163"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3675,11 +3706,11 @@
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="164">
+      <c r="D10" s="178">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3745,11 +3776,11 @@
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="152"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -3813,13 +3844,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="173" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="173">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -3885,11 +3916,11 @@
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="151"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -3953,11 +3984,11 @@
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="151"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4021,11 +4052,11 @@
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="152"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4089,13 +4120,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="173" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4161,11 +4192,11 @@
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4229,6 +4260,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="O5:X5"/>
     <mergeCell ref="B2:D2"/>
@@ -4236,18 +4279,6 @@
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E22273-FE9B-4424-B2D2-0E705FA5DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9394436-9651-499B-BECE-DFE9CBF10003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
   <si>
     <t>Topic</t>
   </si>
@@ -987,6 +987,15 @@
   </si>
   <si>
     <t>Linear Equations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4SJ7bEILPJk&amp;list=PLLy_2iUCG87CNafffzNZPVa9rW-QmOmEv</t>
+  </si>
+  <si>
+    <t>Data Analytics with Python</t>
+  </si>
+  <si>
+    <t>IIT Roorkee</t>
   </si>
 </sst>
 </file>
@@ -2175,6 +2184,51 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,51 +2281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2741,11 +2750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2782,164 +2791,179 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D18" t="s">
         <v>222</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E18" t="s">
         <v>222</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F18" t="s">
         <v>223</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G18" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E24" t="s">
         <v>146</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F24" t="s">
         <v>147</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G24" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
         <v>150</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
         <v>152</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E18" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E19" t="s">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E21" t="s">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E23" t="s">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E24" t="s">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E25" t="s">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E26" t="s">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E27" t="s">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E28" t="s">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E29" t="s">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E30" t="s">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E31" t="s">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E32" t="s">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D52" t="s">
         <v>228</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E52" t="s">
         <v>229</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F52" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
-    <hyperlink ref="H36" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
+    <hyperlink ref="H24" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
+    <hyperlink ref="H18" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
+    <hyperlink ref="H52" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{87F3984C-7554-4486-81B2-0C101EC956F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3260,11 +3284,11 @@
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3308,11 +3332,11 @@
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3343,26 +3367,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="162" t="s">
+      <c r="O3" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="164"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="179"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3393,26 +3417,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="165" t="s">
+      <c r="O4" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="167"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="181"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="X4" s="182"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3443,26 +3467,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="153" t="s">
+      <c r="O5" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="155"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3493,22 +3517,22 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="168" t="s">
+      <c r="P6" s="159"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="169"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="168" t="s">
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
@@ -3521,18 +3545,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3566,13 +3590,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="150" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="153" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3638,11 +3662,11 @@
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="174"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3706,11 +3730,11 @@
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="174"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="164">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3776,11 +3800,11 @@
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="175"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -3844,13 +3868,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="150" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="150">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -3916,11 +3940,11 @@
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="174"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -3984,11 +4008,11 @@
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="174"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4052,11 +4076,11 @@
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="175"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="175"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4120,13 +4144,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="150" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="153" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4192,11 +4216,11 @@
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="175"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4260,11 +4284,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="O4:X4"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4272,13 +4298,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9394436-9651-499B-BECE-DFE9CBF10003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420F66B-C5DB-40D5-8EAC-2982CBED185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2184,6 +2184,75 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2196,6 +2265,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2206,81 +2281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2750,11 +2750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2792,178 +2792,178 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
         <v>171</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>233</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D30" t="s">
-        <v>150</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
       <c r="E37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>228</v>
-      </c>
-      <c r="E52" t="s">
         <v>229</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F37" t="s">
         <v>231</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
-    <hyperlink ref="H18" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
-    <hyperlink ref="H52" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{87F3984C-7554-4486-81B2-0C101EC956F6}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
+    <hyperlink ref="H37" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{87F3984C-7554-4486-81B2-0C101EC956F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3284,11 +3284,11 @@
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3332,11 +3332,11 @@
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3367,26 +3367,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="179"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="164"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3417,26 +3417,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="180" t="s">
+      <c r="O4" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="182"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="167"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3467,26 +3467,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="168" t="s">
+      <c r="O5" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="170"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="155"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3517,22 +3517,22 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="158" t="s">
+      <c r="O6" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="158" t="s">
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="158" t="s">
+      <c r="S6" s="169"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="160"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="170"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
@@ -3545,18 +3545,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3590,13 +3590,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="173" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3662,11 +3662,11 @@
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="163"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3730,11 +3730,11 @@
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="164">
+      <c r="D10" s="178">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3800,11 +3800,11 @@
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="152"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -3868,13 +3868,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="173" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="173">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -3940,11 +3940,11 @@
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="151"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -4008,11 +4008,11 @@
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="151"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4076,11 +4076,11 @@
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="152"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4144,13 +4144,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="173" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4216,11 +4216,11 @@
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4284,6 +4284,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="O5:X5"/>
     <mergeCell ref="B2:D2"/>
@@ -4291,18 +4303,6 @@
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420F66B-C5DB-40D5-8EAC-2982CBED185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6A4DD-F66E-43E6-8B47-A88BF2A56294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="252">
   <si>
     <t>Topic</t>
   </si>
@@ -996,6 +996,57 @@
   </si>
   <si>
     <t>IIT Roorkee</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>Overview of Machine Learning</t>
+  </si>
+  <si>
+    <t>Subtopic</t>
+  </si>
+  <si>
+    <t>Welcome to Machine Learning</t>
+  </si>
+  <si>
+    <t>Applictions of Machine Learning</t>
+  </si>
+  <si>
+    <t>Supervised Vs Unsupervised Machine Learning</t>
+  </si>
+  <si>
+    <t>What is Machine Learning</t>
+  </si>
+  <si>
+    <t>Supervised Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>Regression, Classification</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook, Google Colab</t>
+  </si>
+  <si>
+    <t>Pycharm</t>
+  </si>
+  <si>
+    <t>Linear Regression Model</t>
+  </si>
+  <si>
+    <t>Notations</t>
+  </si>
+  <si>
+    <t>Univariate Linear Regression</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2184,6 +2235,51 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2236,56 +2332,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2750,11 +2802,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2762,12 +2814,16 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1328125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.53125" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.265625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2781,16 +2837,25 @@
         <v>143</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>96</v>
       </c>
@@ -2800,28 +2865,28 @@
       <c r="F2" t="s">
         <v>147</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>233</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2840,130 +2905,188 @@
       <c r="F4" t="s">
         <v>223</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>150</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E7" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
+      <c r="F7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="184"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
         <v>152</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E33" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" t="s">
         <v>228</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E42" t="s">
         <v>229</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F42" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
-    <hyperlink ref="H37" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{87F3984C-7554-4486-81B2-0C101EC956F6}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
+    <hyperlink ref="K42" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{87F3984C-7554-4486-81B2-0C101EC956F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3284,11 +3407,11 @@
     </row>
     <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3332,11 +3455,11 @@
     </row>
     <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3367,26 +3490,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="162" t="s">
+      <c r="O3" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="164"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="179"/>
     </row>
     <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3417,26 +3540,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="165" t="s">
+      <c r="O4" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="167"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="181"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="X4" s="182"/>
     </row>
     <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3467,26 +3590,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="153" t="s">
+      <c r="O5" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="155"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
     </row>
     <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3517,22 +3640,22 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="168" t="s">
+      <c r="P6" s="159"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="169"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="168" t="s">
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
@@ -3545,18 +3668,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3590,13 +3713,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="150" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="153" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3662,11 +3785,11 @@
     </row>
     <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="174"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3730,11 +3853,11 @@
     </row>
     <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="174"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="164">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3800,11 +3923,11 @@
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="175"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -3868,13 +3991,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="150" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="150">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -3940,11 +4063,11 @@
     </row>
     <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="174"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -4008,11 +4131,11 @@
     </row>
     <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="174"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4076,11 +4199,11 @@
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="175"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="175"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4144,13 +4267,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="150" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="153" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4216,11 +4339,11 @@
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="175"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4284,11 +4407,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="O4:X4"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4296,13 +4421,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6A4DD-F66E-43E6-8B47-A88BF2A56294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723712-00C9-48D6-A50A-2C57C5E9137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="255">
   <si>
     <t>Topic</t>
   </si>
@@ -1047,6 +1047,15 @@
   </si>
   <si>
     <t>Univariate Linear Regression</t>
+  </si>
+  <si>
+    <t>Cost Finction</t>
+  </si>
+  <si>
+    <t>Visualizing Cost Functions</t>
+  </si>
+  <si>
+    <t>Gradient Descent</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2337,7 +2346,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2804,9 +2812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2928,10 +2936,9 @@
       <c r="G7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="184" t="s">
+      <c r="H7" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H8" t="s">
@@ -2979,6 +2986,21 @@
       </c>
       <c r="I13" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G14" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G15" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G16" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.45">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723712-00C9-48D6-A50A-2C57C5E9137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="AIML-School-syllabus" sheetId="8" r:id="rId4"/>
     <sheet name="InstitutionMkt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="260">
   <si>
     <t>Topic</t>
   </si>
@@ -1057,11 +1056,26 @@
   <si>
     <t>Gradient Descent</t>
   </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Generative AI Specialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Science Specialization</t>
+  </si>
+  <si>
+    <t>AI Specialist</t>
+  </si>
+  <si>
+    <t>Machine Learning &amp; Deep Learning Specialization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1268,7 +1282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1846,12 +1860,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2244,6 +2317,75 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2256,6 +2398,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,85 +2414,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2647,161 +2741,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F463410D-6645-4E2D-968E-819D5964F481}">
-  <dimension ref="B1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.53125" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="62.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="131"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="190" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="74.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B5" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="188" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="F5" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="G5" s="122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="133"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="123"/>
-    </row>
-    <row r="7" spans="2:6" ht="86.65" x14ac:dyDescent="0.45">
+      <c r="F6" s="127"/>
+      <c r="G6" s="123"/>
+    </row>
+    <row r="7" spans="2:7" ht="96" x14ac:dyDescent="0.3">
       <c r="B7" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="186" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="E7" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="F7" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="G7" s="124" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="135"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="185"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="125"/>
-    </row>
-    <row r="9" spans="2:6" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F8" s="129"/>
+      <c r="G8" s="125"/>
+    </row>
+    <row r="9" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="187" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="E9" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F9" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="G9" s="48" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E10" s="50" t="s">
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="G10" s="49" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2809,29 +2925,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2D820-A747-4E7C-9C4C-9ABEF80F4CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.265625" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.53125" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2863,7 +2979,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>96</v>
       </c>
@@ -2880,7 +2996,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>171</v>
       </c>
@@ -2894,7 +3010,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2923,7 +3039,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>150</v>
       </c>
@@ -2940,12 +3056,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
         <v>240</v>
       </c>
@@ -2953,7 +3069,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>242</v>
       </c>
@@ -2961,7 +3077,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>243</v>
       </c>
@@ -2969,7 +3085,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>247</v>
       </c>
@@ -2977,7 +3093,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>249</v>
       </c>
@@ -2988,22 +3104,22 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>152</v>
       </c>
@@ -3011,82 +3127,82 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3105,33 +3221,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{52258A8C-ED6D-4ABF-A296-5B27AE02F4F6}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{75A487F4-E65D-485D-B362-D65D16497882}"/>
-    <hyperlink ref="K42" r:id="rId3" xr:uid="{8565214F-4187-4DC1-941B-C11C002B02FE}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{87F3984C-7554-4486-81B2-0C101EC956F6}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K42" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD66C68A-1547-4A40-B03D-2BEFB1AB4308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9296875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29.9296875" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
         <v>71</v>
       </c>
@@ -3165,7 +3281,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="140" t="s">
         <v>108</v>
       </c>
@@ -3178,7 +3294,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="141"/>
       <c r="C5" s="12" t="s">
         <v>91</v>
@@ -3189,7 +3305,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="141"/>
       <c r="C6" s="12" t="s">
         <v>94</v>
@@ -3200,7 +3316,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="141"/>
       <c r="C7" s="12" t="s">
         <v>93</v>
@@ -3211,7 +3327,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="142"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
@@ -3220,7 +3336,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="143" t="s">
         <v>109</v>
       </c>
@@ -3237,7 +3353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="144"/>
       <c r="C10" s="16" t="s">
         <v>96</v>
@@ -3252,7 +3368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="145" t="s">
         <v>110</v>
       </c>
@@ -3269,7 +3385,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="146"/>
       <c r="C12" s="33" t="s">
         <v>99</v>
@@ -3284,7 +3400,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="147" t="s">
         <v>111</v>
       </c>
@@ -3301,7 +3417,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="148"/>
       <c r="C14" s="13" t="s">
         <v>77</v>
@@ -3316,7 +3432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="148"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
@@ -3331,7 +3447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="149"/>
       <c r="C16" s="16" t="s">
         <v>103</v>
@@ -3346,7 +3462,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>112</v>
       </c>
@@ -3363,7 +3479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36" t="s">
         <v>113</v>
       </c>
@@ -3392,16 +3508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11F02BE-E519-4FA8-AA4E-664EDBC1FCE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55"/>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -3427,13 +3543,13 @@
       <c r="W1" s="55"/>
       <c r="X1" s="55"/>
     </row>
-    <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3475,13 +3591,13 @@
       <c r="W2" s="55"/>
       <c r="X2" s="55"/>
     </row>
-    <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55"/>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3512,26 +3628,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="179"/>
-    </row>
-    <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="164"/>
+    </row>
+    <row r="4" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3562,26 +3678,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="180" t="s">
+      <c r="O4" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="182"/>
-    </row>
-    <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="167"/>
+    </row>
+    <row r="5" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55"/>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3612,26 +3728,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="168" t="s">
+      <c r="O5" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="170"/>
-    </row>
-    <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="154"/>
+      <c r="V5" s="154"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="155"/>
+    </row>
+    <row r="6" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55"/>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3662,24 +3778,24 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="158" t="s">
+      <c r="O6" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="158" t="s">
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="158" t="s">
+      <c r="S6" s="169"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="160"/>
-    </row>
-    <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="170"/>
+    </row>
+    <row r="7" spans="1:24" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55"/>
       <c r="B7" s="75" t="s">
         <v>191</v>
@@ -3690,18 +3806,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3733,15 +3849,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="173" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3805,13 +3921,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="163"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3873,13 +3989,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="164">
+      <c r="D10" s="178">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -3943,13 +4059,13 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
-      <c r="B11" s="152"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -4011,15 +4127,15 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="173" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="173">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -4083,13 +4199,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="151"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -4151,13 +4267,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
-      <c r="B14" s="151"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4219,13 +4335,13 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
-      <c r="B15" s="152"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4287,15 +4403,15 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="173" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="176" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4359,13 +4475,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4429,6 +4545,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="O5:X5"/>
     <mergeCell ref="B2:D2"/>
@@ -4436,18 +4564,6 @@
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4462,27 +4578,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA15CC9-D6C7-4E9E-BEC2-80B6F0977387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -4510,7 +4626,7 @@
       </c>
       <c r="L1" s="183"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4539,7 +4655,7 @@
         <v>9804605929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4565,7 +4681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4588,7 +4704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4617,7 +4733,7 @@
         <v>9831084446</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4640,7 +4756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4669,7 +4785,7 @@
         <v>9830833868</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4698,7 +4814,7 @@
         <v>9674449931</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4712,7 +4828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4726,7 +4842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4737,7 +4853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4748,7 +4864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4759,7 +4875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4770,7 +4886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4781,7 +4897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4792,7 +4908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="2"/>
     </row>
   </sheetData>
@@ -4801,9 +4917,9 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{978B0A01-7F5D-40FB-AC17-B147CB232C50}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{0A18B0EF-90F2-4986-B696-EE0F0F60D0C8}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{89C93DB8-F303-4994-8A22-7076CE77E056}"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/Course Design.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Teach_Tech@anodiam\AI_Robotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE83A4-0E2E-460C-9809-8A0BF9637276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIML-UG" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="AIML-School-syllabus" sheetId="8" r:id="rId4"/>
     <sheet name="InstitutionMkt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1075,7 +1076,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1282,7 +1283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1880,32 +1881,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2233,6 +2208,15 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2287,6 +2271,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2317,6 +2307,51 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2369,75 +2404,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2741,30 +2716,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.53125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="4" max="4" width="24.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="122" t="s">
         <v>255</v>
       </c>
       <c r="D2" s="42" t="s">
@@ -2780,11 +2755,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="130" t="s">
+    <row r="3" spans="2:7" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="124" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2800,9 +2775,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131"/>
-      <c r="C4" s="190" t="s">
+    <row r="4" spans="2:7" ht="62.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="134"/>
+      <c r="C4" s="124" t="s">
         <v>256</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2818,71 +2793,71 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B5" s="132" t="s">
+    <row r="5" spans="2:7" ht="74.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="143" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="139" t="s">
         <v>130</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="125" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="133"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="137"/>
+    <row r="6" spans="2:7" ht="111.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="136"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="123"/>
-    </row>
-    <row r="7" spans="2:7" ht="96" x14ac:dyDescent="0.3">
-      <c r="B7" s="134" t="s">
+      <c r="F6" s="130"/>
+      <c r="G6" s="126"/>
+    </row>
+    <row r="7" spans="2:7" ht="86.65" x14ac:dyDescent="0.45">
+      <c r="B7" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="189" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="141" t="s">
         <v>131</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="128" t="s">
+      <c r="F7" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="127" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="135"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="139"/>
+    <row r="8" spans="2:7" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="138"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="125"/>
-    </row>
-    <row r="9" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="132"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="2:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="123" t="s">
         <v>258</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2898,7 +2873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F10" s="50" t="s">
         <v>123</v>
       </c>
@@ -2907,7 +2882,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F5:F6"/>
@@ -2918,6 +2893,7 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2925,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2933,21 +2909,21 @@
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="39.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2979,7 +2955,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>96</v>
       </c>
@@ -2996,7 +2972,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>171</v>
       </c>
@@ -3010,7 +2986,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3039,7 +3015,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>150</v>
       </c>
@@ -3056,12 +3032,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G9" s="1" t="s">
         <v>240</v>
       </c>
@@ -3069,7 +3045,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H10" t="s">
         <v>242</v>
       </c>
@@ -3077,7 +3053,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H11" t="s">
         <v>243</v>
       </c>
@@ -3085,7 +3061,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H12" t="s">
         <v>247</v>
       </c>
@@ -3093,7 +3069,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G13" s="1" t="s">
         <v>249</v>
       </c>
@@ -3104,22 +3080,22 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G14" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G15" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G16" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>152</v>
       </c>
@@ -3127,82 +3103,82 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E34" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3221,33 +3197,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="K42" r:id="rId3"/>
-    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K42" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" customWidth="1"/>
+    <col min="5" max="6" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="24" t="s">
         <v>71</v>
       </c>
@@ -3281,8 +3257,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="140" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="145" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -3294,8 +3270,8 @@
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="141"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="146"/>
       <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
@@ -3305,8 +3281,8 @@
       <c r="E5" s="12"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="146"/>
       <c r="C6" s="12" t="s">
         <v>94</v>
       </c>
@@ -3316,8 +3292,8 @@
       <c r="E6" s="12"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="141"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="146"/>
       <c r="C7" s="12" t="s">
         <v>93</v>
       </c>
@@ -3327,8 +3303,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="142"/>
+    <row r="8" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="147"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
         <v>84</v>
@@ -3336,8 +3312,8 @@
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="143" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="148" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -3353,8 +3329,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="144"/>
+    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="149"/>
       <c r="C10" s="16" t="s">
         <v>96</v>
       </c>
@@ -3368,8 +3344,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="145" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="150" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -3385,8 +3361,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="146"/>
+    <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="151"/>
       <c r="C12" s="33" t="s">
         <v>99</v>
       </c>
@@ -3400,8 +3376,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="147" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="152" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -3417,8 +3393,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="148"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="153"/>
       <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
@@ -3432,8 +3408,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="148"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="153"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
       </c>
@@ -3447,8 +3423,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="149"/>
+    <row r="16" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="154"/>
       <c r="C16" s="16" t="s">
         <v>103</v>
       </c>
@@ -3462,7 +3438,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="35" t="s">
         <v>112</v>
       </c>
@@ -3479,7 +3455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="36" t="s">
         <v>113</v>
       </c>
@@ -3508,16 +3484,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="55"/>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -3543,13 +3519,13 @@
       <c r="W1" s="55"/>
       <c r="X1" s="55"/>
     </row>
-    <row r="2" spans="1:24" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="57" t="s">
         <v>170</v>
       </c>
@@ -3591,13 +3567,13 @@
       <c r="W2" s="55"/>
       <c r="X2" s="55"/>
     </row>
-    <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="55"/>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="179" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -3628,26 +3604,26 @@
       <c r="N3" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="162" t="s">
+      <c r="O3" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="164"/>
-    </row>
-    <row r="4" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="184"/>
+    </row>
+    <row r="4" spans="1:24" ht="27" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
       <c r="E4" s="67" t="s">
         <v>180</v>
       </c>
@@ -3678,26 +3654,26 @@
       <c r="N4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="165" t="s">
+      <c r="O4" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="167"/>
-    </row>
-    <row r="5" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="187"/>
+    </row>
+    <row r="5" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="55"/>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="67" t="s">
         <v>180</v>
       </c>
@@ -3728,26 +3704,26 @@
       <c r="N5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="153" t="s">
+      <c r="O5" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="155"/>
-    </row>
-    <row r="6" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="175"/>
+    </row>
+    <row r="6" spans="1:24" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="55"/>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="71" t="s">
         <v>180</v>
       </c>
@@ -3778,24 +3754,24 @@
       <c r="N6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="168" t="s">
+      <c r="P6" s="164"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="163" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="169"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="168" t="s">
+      <c r="S6" s="164"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
-    </row>
-    <row r="7" spans="1:24" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="165"/>
+    </row>
+    <row r="7" spans="1:24" ht="44.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="55"/>
       <c r="B7" s="75" t="s">
         <v>191</v>
@@ -3806,18 +3782,18 @@
       <c r="D7" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
       <c r="O7" s="76" t="s">
         <v>195</v>
       </c>
@@ -3849,15 +3825,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="155" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="158" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="80" t="s">
@@ -3921,13 +3897,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="55"/>
-      <c r="B9" s="174"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="91" t="s">
         <v>208</v>
       </c>
@@ -3989,13 +3965,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="55"/>
-      <c r="B10" s="174"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="169">
         <v>2025</v>
       </c>
       <c r="E10" s="91" t="s">
@@ -4059,13 +4035,13 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55"/>
-      <c r="B11" s="175"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="175"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="103" t="s">
         <v>208</v>
       </c>
@@ -4127,15 +4103,15 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="155" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="155">
         <v>2022</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -4199,13 +4175,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="55"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="174"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="115" t="s">
         <v>209</v>
       </c>
@@ -4267,13 +4243,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="55"/>
-      <c r="B14" s="174"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="115" t="s">
         <v>209</v>
       </c>
@@ -4335,13 +4311,13 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="55"/>
-      <c r="B15" s="175"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="175"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="118" t="s">
         <v>209</v>
       </c>
@@ -4403,15 +4379,15 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="55"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="155" t="s">
         <v>214</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="158" t="s">
         <v>207</v>
       </c>
       <c r="E16" s="80" t="s">
@@ -4475,13 +4451,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="55"/>
-      <c r="B17" s="175"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="103" t="s">
         <v>215</v>
       </c>
@@ -4545,11 +4521,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="O4:X4"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="U6:X6"/>
@@ -4557,13 +4535,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4578,27 +4554,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -4616,17 +4592,17 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="183" t="s">
+      <c r="H1" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183" t="s">
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="183"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="188"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4655,7 +4631,7 @@
         <v>9804605929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4681,7 +4657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4704,7 +4680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4733,7 +4709,7 @@
         <v>9831084446</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4756,7 +4732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4785,7 +4761,7 @@
         <v>9830833868</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4814,7 +4790,7 @@
         <v>9674449931</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4828,7 +4804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4842,7 +4818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4853,7 +4829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4864,7 +4840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4875,7 +4851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4886,7 +4862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4897,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4908,7 +4884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H22" s="2"/>
     </row>
   </sheetData>
@@ -4917,9 +4893,9 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
